--- a/Packet/PacketData/Time.xlsx
+++ b/Packet/PacketData/Time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン時の時間通知" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">MasterId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マスタＩＤ</t>
   </si>
   <si>
     <t xml:space="preserve">PacketTimeChange</t>
@@ -163,10 +166,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -210,6 +213,9 @@
       <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -227,10 +233,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -245,7 +251,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,7 +259,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,6 +279,9 @@
       </c>
       <c r="C4" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
